--- a/server/assets/file.xlsx
+++ b/server/assets/file.xlsx
@@ -32,10 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -399,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P690"/>
+  <dimension ref="A1:P691"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -34904,10 +34902,11 @@
         <v>2014</v>
       </c>
     </row>
+    <row r="691"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P690"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P691"/>
   </ignoredErrors>
 </worksheet>
 </file>